--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnfsf14</t>
+  </si>
+  <si>
+    <t>Ltbr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnfsf14</t>
-  </si>
-  <si>
-    <t>Ltbr</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.640791666666666</v>
+        <v>0.026451</v>
       </c>
       <c r="H2">
-        <v>19.922375</v>
+        <v>0.07935300000000001</v>
       </c>
       <c r="I2">
-        <v>0.7266950649462826</v>
+        <v>0.03137831605053874</v>
       </c>
       <c r="J2">
-        <v>0.7266950649462824</v>
+        <v>0.03137831605053873</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.74343533333333</v>
+        <v>15.01320933333333</v>
       </c>
       <c r="N2">
-        <v>41.230306</v>
+        <v>45.039628</v>
       </c>
       <c r="O2">
-        <v>0.2479265276060321</v>
+        <v>0.2980359842117177</v>
       </c>
       <c r="P2">
-        <v>0.2479265276060321</v>
+        <v>0.2980359842117177</v>
       </c>
       <c r="Q2">
-        <v>91.26729083297221</v>
+        <v>0.3971144000760001</v>
       </c>
       <c r="R2">
-        <v>821.40561749675</v>
+        <v>3.574029600684</v>
       </c>
       <c r="S2">
-        <v>0.1801669840805718</v>
+        <v>0.009351867307028652</v>
       </c>
       <c r="T2">
-        <v>0.1801669840805718</v>
+        <v>0.009351867307028651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.640791666666666</v>
+        <v>0.026451</v>
       </c>
       <c r="H3">
-        <v>19.922375</v>
+        <v>0.07935300000000001</v>
       </c>
       <c r="I3">
-        <v>0.7266950649462826</v>
+        <v>0.03137831605053874</v>
       </c>
       <c r="J3">
-        <v>0.7266950649462824</v>
+        <v>0.03137831605053873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>51.318172</v>
       </c>
       <c r="O3">
-        <v>0.308586993922604</v>
+        <v>0.3395823318071414</v>
       </c>
       <c r="P3">
-        <v>0.3085869939226041</v>
+        <v>0.3395823318071414</v>
       </c>
       <c r="Q3">
-        <v>113.5977629887222</v>
+        <v>0.4524723225240001</v>
       </c>
       <c r="R3">
-        <v>1022.3798668985</v>
+        <v>4.072250902716001</v>
       </c>
       <c r="S3">
-        <v>0.2242486455901648</v>
+        <v>0.0106555217326234</v>
       </c>
       <c r="T3">
-        <v>0.2242486455901648</v>
+        <v>0.01065552173262339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.640791666666666</v>
+        <v>0.026451</v>
       </c>
       <c r="H4">
-        <v>19.922375</v>
+        <v>0.07935300000000001</v>
       </c>
       <c r="I4">
-        <v>0.7266950649462826</v>
+        <v>0.03137831605053874</v>
       </c>
       <c r="J4">
-        <v>0.7266950649462824</v>
+        <v>0.03137831605053873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.60784966666667</v>
+        <v>11.21655833333333</v>
       </c>
       <c r="N4">
-        <v>31.823549</v>
+        <v>33.649675</v>
       </c>
       <c r="O4">
-        <v>0.1913617133879728</v>
+        <v>0.2226664484668797</v>
       </c>
       <c r="P4">
-        <v>0.1913617133879728</v>
+        <v>0.2226664484668797</v>
       </c>
       <c r="Q4">
-        <v>70.44451966765277</v>
+        <v>0.296689184475</v>
       </c>
       <c r="R4">
-        <v>634.000677008875</v>
+        <v>2.670202660275</v>
       </c>
       <c r="S4">
-        <v>0.1390616127387048</v>
+        <v>0.006986898193844748</v>
       </c>
       <c r="T4">
-        <v>0.1390616127387048</v>
+        <v>0.006986898193844747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>6.640791666666666</v>
+        <v>0.026451</v>
       </c>
       <c r="H5">
-        <v>19.922375</v>
+        <v>0.07935300000000001</v>
       </c>
       <c r="I5">
-        <v>0.7266950649462826</v>
+        <v>0.03137831605053874</v>
       </c>
       <c r="J5">
-        <v>0.7266950649462824</v>
+        <v>0.03137831605053873</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.97615833333334</v>
+        <v>7.037989333333333</v>
       </c>
       <c r="N5">
-        <v>41.92847500000001</v>
+        <v>21.113968</v>
       </c>
       <c r="O5">
-        <v>0.252124765083391</v>
+        <v>0.1397152355142612</v>
       </c>
       <c r="P5">
-        <v>0.2521247650833911</v>
+        <v>0.1397152355142612</v>
       </c>
       <c r="Q5">
-        <v>92.8127557920139</v>
+        <v>0.186161855856</v>
       </c>
       <c r="R5">
-        <v>835.3148021281251</v>
+        <v>1.675456702704</v>
       </c>
       <c r="S5">
-        <v>0.1832178225368411</v>
+        <v>0.004384028817041941</v>
       </c>
       <c r="T5">
-        <v>0.1832178225368411</v>
+        <v>0.004384028817041941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.026451</v>
+        <v>0.8165196666666666</v>
       </c>
       <c r="H6">
-        <v>0.07935299999999999</v>
+        <v>2.449559</v>
       </c>
       <c r="I6">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494612</v>
       </c>
       <c r="J6">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.74343533333333</v>
+        <v>15.01320933333333</v>
       </c>
       <c r="N6">
-        <v>41.230306</v>
+        <v>45.039628</v>
       </c>
       <c r="O6">
-        <v>0.2479265276060321</v>
+        <v>0.2980359842117177</v>
       </c>
       <c r="P6">
-        <v>0.2479265276060321</v>
+        <v>0.2980359842117177</v>
       </c>
       <c r="Q6">
-        <v>0.363527608002</v>
+        <v>12.25858068045022</v>
       </c>
       <c r="R6">
-        <v>3.271748472017999</v>
+        <v>110.327226124052</v>
       </c>
       <c r="S6">
-        <v>0.0007176248157032287</v>
+        <v>0.2886841169046891</v>
       </c>
       <c r="T6">
-        <v>0.0007176248157032289</v>
+        <v>0.288684116904689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.026451</v>
+        <v>0.8165196666666666</v>
       </c>
       <c r="H7">
-        <v>0.07935299999999999</v>
+        <v>2.449559</v>
       </c>
       <c r="I7">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494612</v>
       </c>
       <c r="J7">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>51.318172</v>
       </c>
       <c r="O7">
-        <v>0.308586993922604</v>
+        <v>0.3395823318071414</v>
       </c>
       <c r="P7">
-        <v>0.3085869939226041</v>
+        <v>0.3395823318071414</v>
       </c>
       <c r="Q7">
-        <v>0.452472322524</v>
+        <v>13.96743223179422</v>
       </c>
       <c r="R7">
-        <v>4.072250902716</v>
+        <v>125.706890086148</v>
       </c>
       <c r="S7">
-        <v>0.00089320689794848</v>
+        <v>0.328926810074518</v>
       </c>
       <c r="T7">
-        <v>0.00089320689794848</v>
+        <v>0.3289268100745179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.026451</v>
+        <v>0.8165196666666666</v>
       </c>
       <c r="H8">
-        <v>0.07935299999999999</v>
+        <v>2.449559</v>
       </c>
       <c r="I8">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494612</v>
       </c>
       <c r="J8">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.60784966666667</v>
+        <v>11.21655833333333</v>
       </c>
       <c r="N8">
-        <v>31.823549</v>
+        <v>33.649675</v>
       </c>
       <c r="O8">
-        <v>0.1913617133879728</v>
+        <v>0.2226664484668797</v>
       </c>
       <c r="P8">
-        <v>0.1913617133879728</v>
+        <v>0.2226664484668797</v>
       </c>
       <c r="Q8">
-        <v>0.280588231533</v>
+        <v>9.158540471480555</v>
       </c>
       <c r="R8">
-        <v>2.525294083797</v>
+        <v>82.426864243325</v>
       </c>
       <c r="S8">
-        <v>0.0005538976229317258</v>
+        <v>0.215679550273035</v>
       </c>
       <c r="T8">
-        <v>0.0005538976229317258</v>
+        <v>0.215679550273035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.026451</v>
+        <v>0.8165196666666666</v>
       </c>
       <c r="H9">
-        <v>0.07935299999999999</v>
+        <v>2.449559</v>
       </c>
       <c r="I9">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494612</v>
       </c>
       <c r="J9">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494611</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.97615833333334</v>
+        <v>7.037989333333333</v>
       </c>
       <c r="N9">
-        <v>41.92847500000001</v>
+        <v>21.113968</v>
       </c>
       <c r="O9">
-        <v>0.252124765083391</v>
+        <v>0.1397152355142612</v>
       </c>
       <c r="P9">
-        <v>0.2521247650833911</v>
+        <v>0.1397152355142612</v>
       </c>
       <c r="Q9">
-        <v>0.3696833640750001</v>
+        <v>5.746656704456888</v>
       </c>
       <c r="R9">
-        <v>3.327150276675</v>
+        <v>51.71991034011199</v>
       </c>
       <c r="S9">
-        <v>0.0007297766391690725</v>
+        <v>0.1353312066972192</v>
       </c>
       <c r="T9">
-        <v>0.0007297766391690725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.471104333333333</v>
-      </c>
-      <c r="H10">
-        <v>7.413313</v>
-      </c>
-      <c r="I10">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="J10">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>13.74343533333333</v>
-      </c>
-      <c r="N10">
-        <v>41.230306</v>
-      </c>
-      <c r="O10">
-        <v>0.2479265276060321</v>
-      </c>
-      <c r="P10">
-        <v>0.2479265276060321</v>
-      </c>
-      <c r="Q10">
-        <v>33.96146260708644</v>
-      </c>
-      <c r="R10">
-        <v>305.653163463778</v>
-      </c>
-      <c r="S10">
-        <v>0.06704191870975705</v>
-      </c>
-      <c r="T10">
-        <v>0.06704191870975706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.471104333333333</v>
-      </c>
-      <c r="H11">
-        <v>7.413313</v>
-      </c>
-      <c r="I11">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="J11">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>17.10605733333334</v>
-      </c>
-      <c r="N11">
-        <v>51.318172</v>
-      </c>
-      <c r="O11">
-        <v>0.308586993922604</v>
-      </c>
-      <c r="P11">
-        <v>0.3085869939226041</v>
-      </c>
-      <c r="Q11">
-        <v>42.27085240264845</v>
-      </c>
-      <c r="R11">
-        <v>380.4376716238361</v>
-      </c>
-      <c r="S11">
-        <v>0.08344514143449071</v>
-      </c>
-      <c r="T11">
-        <v>0.08344514143449072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2.471104333333333</v>
-      </c>
-      <c r="H12">
-        <v>7.413313</v>
-      </c>
-      <c r="I12">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="J12">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>10.60784966666667</v>
-      </c>
-      <c r="N12">
-        <v>31.823549</v>
-      </c>
-      <c r="O12">
-        <v>0.1913617133879728</v>
-      </c>
-      <c r="P12">
-        <v>0.1913617133879728</v>
-      </c>
-      <c r="Q12">
-        <v>26.21310327864856</v>
-      </c>
-      <c r="R12">
-        <v>235.917929507837</v>
-      </c>
-      <c r="S12">
-        <v>0.05174620302633626</v>
-      </c>
-      <c r="T12">
-        <v>0.05174620302633627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.471104333333333</v>
-      </c>
-      <c r="H13">
-        <v>7.413313</v>
-      </c>
-      <c r="I13">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="J13">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.97615833333334</v>
-      </c>
-      <c r="N13">
-        <v>41.92847500000001</v>
-      </c>
-      <c r="O13">
-        <v>0.252124765083391</v>
-      </c>
-      <c r="P13">
-        <v>0.2521247650833911</v>
-      </c>
-      <c r="Q13">
-        <v>34.53654542085278</v>
-      </c>
-      <c r="R13">
-        <v>310.8289087876751</v>
-      </c>
-      <c r="S13">
-        <v>0.06817716590738088</v>
-      </c>
-      <c r="T13">
-        <v>0.06817716590738089</v>
+        <v>0.1353312066972192</v>
       </c>
     </row>
   </sheetData>
